--- a/10_ResiduosSolidosUrbanos/P1017/P1017.xlsx
+++ b/10_ResiduosSolidosUrbanos/P1017/P1017.xlsx
@@ -185,7 +185,7 @@
     <t>Municipal</t>
   </si>
   <si>
-    <t>Este parámetro considera las viviendas que no entregan sus residuos a un servicio público de recolección, y que disponen de estos quemándolos o tirándolos en lugares inadecuados (Como puede ser en la calle, baldío o río)</t>
+    <t>Este parámetro considera las viviendas que no entregan sus residuos a un servicio público de recolección, y que disponen de estos quemándolos o tirándolos en lugares inadecuados (Como puede ser en la calle, baldío o río). El valor indica el porcentaje de viviendas en cada ciudad que cumplen esta condicion (por ejemplo, 0.4619 = 0.4916 % y 50.95 = 50.95 %)</t>
   </si>
   <si>
     <t>INEGI (Microdatos)</t>
